--- a/shifts/Syria 25 Team Maslow.xlsx
+++ b/shifts/Syria 25 Team Maslow.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="26">
   <si>
     <t>מסלו</t>
   </si>
@@ -31,6 +31,9 @@
     <t>אהרוני</t>
   </si>
   <si>
+    <t>שושן</t>
+  </si>
+  <si>
     <t>תורג'מן</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>אגיון</t>
   </si>
   <si>
-    <t>שושן</t>
-  </si>
-  <si>
     <t>עוז</t>
   </si>
   <si>
@@ -58,9 +58,6 @@
     <t>טוביאנה</t>
   </si>
   <si>
-    <t>תורגמן</t>
-  </si>
-  <si>
     <t>חמישי</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>יציאות</t>
-  </si>
-  <si>
-    <t>אלאור</t>
   </si>
 </sst>
 </file>
@@ -537,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>4</v>
@@ -559,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -571,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>3</v>
@@ -607,26 +601,26 @@
         <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <f t="array" ref="A4">SUM(LEN(C2:AF9) - LEN(SUBSTITUTE(C2:AF9, "שושן", ""))) / LEN("שושן")
 </f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -659,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>4</v>
@@ -671,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>12</v>
@@ -717,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>2</v>
@@ -732,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>2</v>
@@ -787,22 +781,22 @@
         <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>2</v>
@@ -817,26 +811,26 @@
         <v>2</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <f t="array" ref="A7">SUM(LEN(C2:U9) - LEN(SUBSTITUTE(C2:U9, "רון", ""))) / LEN("רון")
 </f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -866,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>1</v>
@@ -878,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>2</v>
@@ -964,19 +958,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -1003,10 +997,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>5</v>
@@ -1025,7 +1019,7 @@
       <c r="A10" s="1">
         <f t="array" ref="A10">SUM(LEN(C2:AF9) - LEN(SUBSTITUTE(C2:AF9, "טוביאנה", ""))) / LEN("טוביאנה")
 </f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1043,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="R11" s="1"/>
@@ -1055,94 +1049,94 @@
       <c r="A12" s="1">
         <f t="array" ref="A12">SUM(LEN(C2:AF9) - LEN(SUBSTITUTE(C2:AF9, "תורג'מן", ""))) / LEN("תורג'מן")
 </f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="X12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1155,88 +1149,88 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1246,16 +1240,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1270,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -1291,13 +1285,13 @@
         <v>14</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>11</v>
@@ -1325,34 +1319,34 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>4</v>
@@ -1386,34 +1380,34 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>12</v>
@@ -1428,25 +1422,25 @@
         <v>11</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
@@ -1455,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>13</v>
@@ -1470,10 +1464,10 @@
         <v>13</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>13</v>
@@ -1507,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
@@ -1531,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>5</v>
@@ -1546,13 +1540,13 @@
         <v>12</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>1</v>
@@ -1561,14 +1555,14 @@
         <v>1</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <f t="array" ref="A19">SUM(LEN(C14:AF26) - LEN(SUBSTITUTE(C14:AF26, "פבל", ""))) / LEN("פבל")
 </f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1613,22 +1607,22 @@
         <v>14</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1638,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1650,25 +1644,25 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>12</v>
@@ -1702,10 +1696,10 @@
       <c r="A21" s="1">
         <f t="array" ref="A21">SUM(LEN(C14:AF26) - LEN(SUBSTITUTE(C14:AF26, "שושן", ""))) / LEN("שושן")
 </f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1738,7 +1732,7 @@
       <c r="A24" s="1">
         <f t="array" ref="A24">SUM(LEN(C14:AF26) - LEN(SUBSTITUTE(C14:AF26, "רון", ""))) / LEN("רון")
 </f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -1751,7 +1745,7 @@
       <c r="A25" s="1">
         <f t="array" ref="A25">SUM(LEN(C14:AF26) - LEN(SUBSTITUTE(C14:AF26, "אליאור", ""))) / LEN("אליאור")
 </f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -1777,7 +1771,7 @@
       <c r="A27" s="1">
         <f t="array" ref="A27">SUM(LEN(C14:AF26) - LEN(SUBSTITUTE(C14:AF26, "טוביאנה", ""))) / LEN("טוביאנה")
 </f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
@@ -1793,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1806,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1832,7 +1826,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
